--- a/docs/BinaryCodes.xlsx
+++ b/docs/BinaryCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mera\Documents\ArduinoProjects\RGBTransmission\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D30432-F9B0-435D-87D9-9A8B35A5B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D901875-59F7-4D10-8F45-805B016C6F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>a</t>
   </si>
@@ -395,13 +395,136 @@
   </si>
   <si>
     <t>01100000</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://www.calculadoraconversor.com/ascii-a-binario/</t>
+  </si>
+  <si>
+    <t>0000 0000</t>
+  </si>
+  <si>
+    <t>Carácter Nulo</t>
+  </si>
+  <si>
+    <t>0000 0001</t>
+  </si>
+  <si>
+    <t>Inicio de Encabezado</t>
+  </si>
+  <si>
+    <t>0000 0010</t>
+  </si>
+  <si>
+    <t>Inicio de Texto</t>
+  </si>
+  <si>
+    <t>0000 0011</t>
+  </si>
+  <si>
+    <t>Fin de Texto</t>
+  </si>
+  <si>
+    <t>0000 0100</t>
+  </si>
+  <si>
+    <t>Fin de Transmisión</t>
+  </si>
+  <si>
+    <t>0000 1110</t>
+  </si>
+  <si>
+    <t>Desactivar mayúsculas</t>
+  </si>
+  <si>
+    <t>0000 1111</t>
+  </si>
+  <si>
+    <t>Activar mayúsculas</t>
+  </si>
+  <si>
+    <t>0001 0000</t>
+  </si>
+  <si>
+    <t>Escape vínculo de datos</t>
+  </si>
+  <si>
+    <t>0001 0101</t>
+  </si>
+  <si>
+    <t>Acuse de recibo negativo</t>
+  </si>
+  <si>
+    <t>0001 0110</t>
+  </si>
+  <si>
+    <t>Síncronía en espera</t>
+  </si>
+  <si>
+    <t>0001 0111</t>
+  </si>
+  <si>
+    <t>Fin del bloque de transmisión</t>
+  </si>
+  <si>
+    <t>0001 1001</t>
+  </si>
+  <si>
+    <t>Fin del medio</t>
+  </si>
+  <si>
+    <t>0001 1010</t>
+  </si>
+  <si>
+    <t>Substitución</t>
+  </si>
+  <si>
+    <t>0001 1011</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>0001 1100</t>
+  </si>
+  <si>
+    <t>Separador de archivo</t>
+  </si>
+  <si>
+    <t>0001 1101</t>
+  </si>
+  <si>
+    <t>Separador de grupo</t>
+  </si>
+  <si>
+    <t>0001 1110</t>
+  </si>
+  <si>
+    <t>Separador de registro</t>
+  </si>
+  <si>
+    <t>0001 1111</t>
+  </si>
+  <si>
+    <t>Separador de unidad</t>
+  </si>
+  <si>
+    <t>0111 1111</t>
+  </si>
+  <si>
+    <t>Suprimir</t>
+  </si>
+  <si>
+    <t>No se si vayamos a usar estos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,16 +538,56 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -447,11 +610,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -460,8 +633,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,18 +964,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557E5D5-701A-4780-AF46-E83C519B91A8}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -820,7 +1013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -851,7 +1044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -881,8 +1074,11 @@
       <c r="N3" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -913,7 +1109,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -944,7 +1140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -971,7 +1167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1233,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1295,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1130,7 +1326,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1353,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1384,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1252,7 +1448,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1284,7 +1480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1316,7 +1512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1504,7 +1700,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1526,7 +1722,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1744,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1766,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1592,11 +1788,252 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
       <c r="E29" s="1"/>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="O29">
+        <f>SUM(A29:N29)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C32:E50"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{49BB9123-9450-4734-8CD8-CADEF5F2A019}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/BinaryCodes.xlsx
+++ b/docs/BinaryCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mera\Documents\ArduinoProjects\RGBTransmission\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55F048-EBBD-4F50-BF14-D8510B99D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5ADA7-777F-4A5D-8071-64E424B289E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
+    <workbookView xWindow="2715" yWindow="5040" windowWidth="29040" windowHeight="15840" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -613,10 +613,10 @@
     <t>11 01 10 10</t>
   </si>
   <si>
-    <t>0010 0000+A1:A32</t>
-  </si>
-  <si>
     <t>102 caractéres</t>
+  </si>
+  <si>
+    <t>0010 0000</t>
   </si>
 </sst>
 </file>
@@ -712,13 +712,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,28 +1055,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1087,22 +1087,22 @@
       <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1113,22 +1113,22 @@
       <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1139,22 +1139,22 @@
       <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1165,74 +1165,74 @@
       <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1243,22 +1243,22 @@
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1269,48 +1269,48 @@
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>9</v>
       </c>
     </row>
@@ -1321,36 +1321,36 @@
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1361,52 +1361,52 @@
       <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N13" s="5"/>
+      <c r="M13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1417,22 +1417,22 @@
       <c r="B15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1443,22 +1443,22 @@
       <c r="B16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1469,22 +1469,22 @@
       <c r="B17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1495,16 +1495,16 @@
       <c r="B18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="1"/>
@@ -1517,22 +1517,22 @@
       <c r="B19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1543,22 +1543,22 @@
       <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1569,22 +1569,22 @@
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1595,22 +1595,22 @@
       <c r="B22" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1621,22 +1621,22 @@
       <c r="B23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1647,16 +1647,16 @@
       <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1667,16 +1667,16 @@
       <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1687,16 +1687,16 @@
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/BinaryCodes.xlsx
+++ b/docs/BinaryCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mera\Documents\ArduinoProjects\RGBTransmission\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5ADA7-777F-4A5D-8071-64E424B289E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674177D9-8AD0-4175-8BA1-5D01D9A931A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="5040" windowWidth="29040" windowHeight="15840" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
+    <workbookView xWindow="22830" yWindow="3075" windowWidth="28800" windowHeight="6480" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01114EC-0E83-41F3-910E-BA036461728B}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/BinaryCodes.xlsx
+++ b/docs/BinaryCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mera\Documents\ArduinoProjects\RGBTransmission\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674177D9-8AD0-4175-8BA1-5D01D9A931A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE932FE2-A4CC-49D6-BE74-E079B5652F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="3075" windowWidth="28800" windowHeight="6480" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
+    <workbookView xWindow="4050" yWindow="450" windowWidth="28800" windowHeight="6480" xr2:uid="{0E875CE4-07DB-437D-B0C7-311FE601E728}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -583,40 +583,40 @@
     <t>0100 1111</t>
   </si>
   <si>
-    <t>11 10 00 01</t>
-  </si>
-  <si>
-    <t>11 10 10 01</t>
-  </si>
-  <si>
-    <t>11 10 11 01</t>
-  </si>
-  <si>
-    <t>11 11 00 11</t>
-  </si>
-  <si>
-    <t>11 11 10 10</t>
-  </si>
-  <si>
-    <t>11 00 00 01</t>
-  </si>
-  <si>
-    <t>11 00 10 01</t>
-  </si>
-  <si>
-    <t>11 00 11 01</t>
-  </si>
-  <si>
-    <t>11 01 00 11</t>
-  </si>
-  <si>
-    <t>11 01 10 10</t>
-  </si>
-  <si>
     <t>102 caractéres</t>
   </si>
   <si>
     <t>0010 0000</t>
+  </si>
+  <si>
+    <t>11100001</t>
+  </si>
+  <si>
+    <t>11101001</t>
+  </si>
+  <si>
+    <t>11101101</t>
+  </si>
+  <si>
+    <t>11110011</t>
+  </si>
+  <si>
+    <t>11111010</t>
+  </si>
+  <si>
+    <t>11000001</t>
+  </si>
+  <si>
+    <t>11001001</t>
+  </si>
+  <si>
+    <t>11001101</t>
+  </si>
+  <si>
+    <t>11010011</t>
+  </si>
+  <si>
+    <t>11011010</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01114EC-0E83-41F3-910E-BA036461728B}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,12 +1051,14 @@
     <col min="7" max="7" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="3"/>
     <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>62</v>
@@ -1377,10 +1379,14 @@
         <v>1</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="3">
+        <f>BIN2DEC(K13)</f>
+        <v>225</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="N13" s="7"/>
     </row>
@@ -1407,7 +1413,11 @@
         <v>6</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ref="L14:L17" si="0">BIN2DEC(K14)</f>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1433,7 +1443,11 @@
         <v>11</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1459,10 +1473,14 @@
         <v>18</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>132</v>
       </c>
@@ -1485,10 +1503,14 @@
         <v>25</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>135</v>
       </c>
@@ -1510,7 +1532,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>138</v>
       </c>
@@ -1533,10 +1555,14 @@
         <v>32</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L19" s="3">
+        <f>BIN2DEC(K19)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
@@ -1559,10 +1585,14 @@
         <v>37</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:L23" si="1">BIN2DEC(K20)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>144</v>
       </c>
@@ -1585,10 +1615,14 @@
         <v>42</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -1611,10 +1645,14 @@
         <v>49</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -1637,10 +1675,14 @@
         <v>56</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>105</v>
       </c>
@@ -1660,7 +1702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
@@ -1680,7 +1722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>109</v>
       </c>
@@ -1700,7 +1742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>171</v>
       </c>
@@ -1708,7 +1750,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>174</v>
       </c>
@@ -1716,7 +1758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>177</v>
       </c>
@@ -1724,7 +1766,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>180</v>
       </c>
